--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1959234.718521846</v>
+        <v>1956217.128120909</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>351.8496612530807</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>291.7556181493934</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>200.8395066620459</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>347.3395233002866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>268.0457851141057</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.39316183105664</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2713935802968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.130758887765173</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>139.9164830972606</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,13 +1187,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>163.4435927426897</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.634490799661691</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42.93948241199155</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.1177672601615</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>17.30279803015046</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>173.5954779282471</v>
+        <v>243.5646582621295</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>50.03633552408653</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.7660731567858</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.306260043177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.4898845065109</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>14.73664328356724</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.237352398579</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,10 +3035,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465765</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>202.8314011329595</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231534</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3323,10 +3323,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>253.4815608280871</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>181.732896742894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>17.35490820528826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>40.42818882371066</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238304</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>118.8209292153263</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>13.03835714321502</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1718.957088916128</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C2" t="n">
-        <v>1718.957088916128</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D2" t="n">
-        <v>1718.957088916128</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>920.0754105224348</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>502.1116024206217</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1718.957088916128</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1718.957088916128</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>268.535689181137</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V4" t="n">
-        <v>268.535689181137</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>268.535689181137</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1689.203741822952</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1689.203741822952</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.415489224708</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2152.732416223701</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4659,34 +4659,34 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1275.883734065348</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C8" t="n">
-        <v>1275.883734065348</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.688451623019</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>766.7025468334118</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7387387315987</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.7689125078493</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>365.9274674422038</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>219.0375199442935</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>720.4173773380891</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>720.4173773380891</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>720.4173773380891</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>720.4173773380891</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>720.4173773380891</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>720.4173773380891</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.4173773380891</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5066,13 +5066,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,13 +5279,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>402.5429058479623</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5604,13 +5604,13 @@
         <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O18" t="n">
-        <v>1966.019627967826</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2486.320249703573</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>581.2010889427438</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>433.2879953603507</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293934</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>643.8194987924328</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>643.8194987924328</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.0269196489027</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="D22" t="n">
         <v>3459.155393916675</v>
@@ -5944,16 +5944,16 @@
         <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>3861.596437890445</v>
+        <v>3790.92049815925</v>
       </c>
       <c r="W22" t="n">
-        <v>3861.596437890445</v>
+        <v>3790.92049815925</v>
       </c>
       <c r="X22" t="n">
-        <v>3861.596437890445</v>
+        <v>3790.92049815925</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746915</v>
+        <v>3790.92049815925</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095318</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001782</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281743</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945776</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4123.553010391855</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C25" t="n">
-        <v>3954.616827463949</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D25" t="n">
-        <v>3804.500188051613</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E25" t="n">
-        <v>3656.58709446922</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F25" t="n">
-        <v>3509.697146971309</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>3595.282740539691</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365625</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365625</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>4525.994054365625</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W25" t="n">
-        <v>4525.994054365625</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X25" t="n">
-        <v>4525.994054365625</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y25" t="n">
-        <v>4305.201475222095</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211724</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011341</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>3158.474758001779</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>579.0685056491511</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>410.1323227212442</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>260.0156833089085</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>112.1025897265154</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>112.1025897265154</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>112.1025897265154</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>112.1025897265154</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771459</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655726</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286121</v>
+        <v>1209.499100520938</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305947</v>
+        <v>981.509549622921</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870646</v>
+        <v>760.7169704793909</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
@@ -6695,22 +6695,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3607.068487499076</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>3607.068487499076</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.068487499076</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491671</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4344.979256327066</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>4055.850617540624</v>
+        <v>4633.687647031309</v>
       </c>
       <c r="V34" t="n">
-        <v>4055.850617540624</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="W34" t="n">
-        <v>4055.850617540624</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="X34" t="n">
-        <v>3827.861066642606</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y34" t="n">
-        <v>3607.068487499076</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.4843764226426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028587</v>
@@ -7093,7 +7093,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7102,7 +7102,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>819.1688646285295</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>564.4843764226426</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>564.4843764226426</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>564.4843764226426</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>564.4843764226426</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,34 +7187,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1004.352574466701</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1004.352574466701</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1004.352574466701</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>714.9354044297403</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>486.9458535317229</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.1532743881928</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.1014931486214</v>
+        <v>716.8555221680796</v>
       </c>
       <c r="C43" t="n">
-        <v>265.1653102207146</v>
+        <v>547.9193392401727</v>
       </c>
       <c r="D43" t="n">
-        <v>265.1653102207146</v>
+        <v>547.9193392401727</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>400.0062456577796</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>400.0062456577796</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913839</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768785</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788612</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.7499579788612</v>
+        <v>898.5039869983193</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7664,28 +7664,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4058.219498354872</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C46" t="n">
-        <v>3889.283315426965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D46" t="n">
-        <v>3889.283315426965</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426965</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426965</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746786</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491672</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281178</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4312.903986560759</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>4058.219498354872</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>4058.219498354872</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>4058.219498354872</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>4058.219498354872</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360582</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>73.53204524670002</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.62661940943602</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776735</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>73.53204524669951</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814625</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>123.554086051386</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.71421292177584</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1182499927808</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>78.54216539558089</v>
+        <v>8.572985061698489</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>116.4572329392911</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>14.14775521075038</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.27839330891777</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.34209567542636</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>95.68260218070475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>18.71615992542979</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.34209567542396</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.75579157049782</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.81466431549524</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>129.0790544412809</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>126.0653796396669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,13 +25843,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>47.67263924805124</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>273.1989952553623</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.8073538226</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
@@ -26329,31 +26329,31 @@
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590215</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="J2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>508337.7776590218</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430938</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430938</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430938</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.5006543094</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430938</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26488,13 +26488,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26503,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295509.550607925</v>
+        <v>-295924.7651173925</v>
       </c>
       <c r="C6" t="n">
-        <v>294458.3286066196</v>
+        <v>294043.1140971523</v>
       </c>
       <c r="D6" t="n">
-        <v>294458.32860662</v>
+        <v>294043.1140971526</v>
       </c>
       <c r="E6" t="n">
-        <v>-123521.0854209005</v>
+        <v>-123855.2543880302</v>
       </c>
       <c r="F6" t="n">
-        <v>401638.9510559956</v>
+        <v>401304.782088866</v>
       </c>
       <c r="G6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="H6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="I6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.7820888658</v>
       </c>
       <c r="J6" t="n">
-        <v>225215.7318634026</v>
+        <v>224881.562896273</v>
       </c>
       <c r="K6" t="n">
-        <v>401638.9510559958</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="L6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.782088866</v>
       </c>
       <c r="M6" t="n">
-        <v>266837.9358221585</v>
+        <v>266503.7668550289</v>
       </c>
       <c r="N6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.7820888658</v>
       </c>
       <c r="O6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.782088866</v>
       </c>
       <c r="P6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.7820888658</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26808,13 +26808,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26823,13 +26823,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>30.0807088191811</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>32.16715461496375</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>85.44236757993184</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>59.53652244142484</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>59.70647335602922</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>177.4388183508807</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>35.43826180874038</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>347.5522827329178</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>184.0062896670965</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.866209516361209</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.48825915525262</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29752,10 +29752,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.306723593985524e-12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -29986,13 +29986,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-7.53352721201752e-12</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30280,16 +30280,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.22951947473823e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.487094095817787e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.838300041165675e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30675,7 +30675,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-2.366653162078198e-12</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839184</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>355.8957474878082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.6396521945101</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>355.8957474878077</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515205993</v>
       </c>
       <c r="P31" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341706</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1956217.128120909</v>
+        <v>2031746.797785714</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>291.7556181493934</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,19 +709,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.95189872950489</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.856694517591443</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>146.0815358707684</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>268.0457851141057</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.39316183105664</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>98.86797211263773</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>139.9164830972606</v>
+        <v>73.52907136089682</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>163.4435927426897</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>38.85099796338687</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>42.93948241199155</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>17.30279803015046</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>249.7211944222915</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151882</v>
       </c>
       <c r="V22" t="n">
-        <v>243.5646582621295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.7660731567858</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>14.73664328356724</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.8952567231534</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>206.8933087008745</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>114.9309043193591</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.42818882371066</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4138,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>118.8209292153263</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.061315312042</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1331.061315312042</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>920.0754105224348</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>502.1116024206217</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2453.870288883588</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2453.870288883588</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>984.6750962183016</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>984.6750962183016</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>626.4093976115512</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>626.4093976115512</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>215.4234928219436</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>201.5000887605345</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>201.5000887605345</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2152.732416223701</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1799.963760953587</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1426.498002692507</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1036.358670716696</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>470.722514162039</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>470.722514162039</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>470.722514162039</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>322.8094205796459</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>322.8094205796459</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>153.8096203179783</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.9299350185087</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1563.476704221264</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C8" t="n">
-        <v>1563.476704221264</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D8" t="n">
-        <v>1563.476704221264</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="E8" t="n">
-        <v>1177.688451623019</v>
+        <v>1110.630459970127</v>
       </c>
       <c r="F8" t="n">
-        <v>766.7025468334118</v>
+        <v>699.6445551805191</v>
       </c>
       <c r="G8" t="n">
-        <v>348.7387387315987</v>
+        <v>281.680747078706</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1563.476704221264</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245969</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>513.8405610245969</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>365.9274674422038</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="F10" t="n">
-        <v>219.0375199442935</v>
+        <v>262.1862143682814</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>93.18641410661382</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>93.18641410661382</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>93.18641410661382</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5221,19 +5223,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
@@ -5261,31 +5263,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,10 +5360,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030239</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
         <v>1514.038914395485</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>402.5429058479623</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265285</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>731.3177283550796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3177283550796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>581.2010889427438</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>433.2879953603507</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550796</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X19" t="n">
-        <v>731.3177283550796</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.3177283550796</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>3790.92049815925</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>3790.92049815925</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3790.92049815925</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>3790.92049815925</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,22 +5989,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6029,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4230.423978142506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4061.487795214599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3911.371155802263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3595.282740539691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014292</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4632.865022116275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4412.072442972745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.0685056491511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1323227212442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>260.0156833089085</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>112.1025897265154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>112.1025897265154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>112.1025897265154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>112.1025897265154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6634,37 +6636,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557899</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557899</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557899</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557899</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520938</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>981.509549622921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7169704793909</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,7 +6797,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4633.687647031309</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4379.003158825422</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4089.585988788462</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7494,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.8555221680796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>547.9193392401727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>547.9193392401727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>400.0062456577796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>400.0062456577796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>898.5039869983193</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>898.5039869983193</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>515.5693341162774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>87.16935584025435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O18" t="n">
-        <v>73.53204524670002</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9480,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208062</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>123.554086051386</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>128.1182499927808</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>36.51615797628585</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338918</v>
       </c>
       <c r="V22" t="n">
-        <v>8.572985061698489</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>14.14775521075038</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>95.68260218070475</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.34209567542396</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>18.81634668816264</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.98990566424413</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>126.0653796396669</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>47.67263924805124</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590216</v>
@@ -26344,16 +26346,16 @@
         <v>508337.7776590217</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="O2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26442,10 +26444,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26473,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173925</v>
+        <v>-295924.7651173923</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971523</v>
+        <v>294043.1140971524</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971526</v>
+        <v>294043.1140971527</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880302</v>
+        <v>-123855.25438803</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.782088866</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="G6" t="n">
         <v>401304.7820888659</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888659</v>
+        <v>401304.7820888658</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888658</v>
+        <v>401304.782088866</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.562896273</v>
+        <v>224881.5628962727</v>
       </c>
       <c r="K6" t="n">
         <v>401304.7820888659</v>
@@ -26552,13 +26554,13 @@
         <v>401304.782088866</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.7668550289</v>
+        <v>266503.7668550288</v>
       </c>
       <c r="N6" t="n">
-        <v>401304.7820888658</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="O6" t="n">
-        <v>401304.782088866</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="P6" t="n">
         <v>401304.7820888658</v>
@@ -26738,37 +26740,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>32.16715461496375</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>204.4964216281529</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>141.5772681289777</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.849780374092887</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>59.70647335602922</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.4388183508807</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>57.30291672915742</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>184.0062896670965</v>
+        <v>250.3937014034603</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.866209516361209</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>6.348961225150127</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28992,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O18" t="n">
-        <v>355.8957474878082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36288,16 +36290,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056001</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768305</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515205993</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2031746.797785714</v>
+        <v>2024729.782894004</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>243.6401400797705</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>11.95189872950489</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>4.856694517591443</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>47.14167849255911</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>146.0815358707684</v>
+        <v>110.7282600175527</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>107.005888773218</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>98.86797211263773</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>73.52907136089682</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>5.983388191320055</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>30.60408762095456</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.85099796338687</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>135.5947476878508</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>94.16481274941266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>116.8853054826698</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>249.7211944222915</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151882</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>220.1478137998982</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,10 +2377,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>194.8026695426894</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>221.932349016858</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>206.8933087008745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>114.9309043193591</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>206.806426921486</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>474.3790142316151</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>467.4335134824117</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>453.5101094210026</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2453.870288883588</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2453.870288883588</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.807401540017</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.5052582912013</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>104.5052582912013</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.5052582912013</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.5052582912013</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>984.6750962183016</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C5" t="n">
-        <v>984.6750962183016</v>
+        <v>948.9647165685888</v>
       </c>
       <c r="D5" t="n">
-        <v>626.4093976115512</v>
+        <v>590.6990179618383</v>
       </c>
       <c r="E5" t="n">
-        <v>626.4093976115512</v>
+        <v>590.6990179618383</v>
       </c>
       <c r="F5" t="n">
-        <v>215.4234928219436</v>
+        <v>583.7535172126348</v>
       </c>
       <c r="G5" t="n">
-        <v>201.5000887605345</v>
+        <v>165.7897091108217</v>
       </c>
       <c r="H5" t="n">
-        <v>201.5000887605345</v>
+        <v>165.7897091108217</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.722514162039</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="C7" t="n">
-        <v>470.722514162039</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="D7" t="n">
-        <v>470.722514162039</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>322.8094205796459</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>322.8094205796459</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8096203179783</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>470.722514162039</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.722514162039</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508783</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.418712568371</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1496.418712568371</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>1110.630459970127</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>699.6445551805191</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>281.680747078706</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>529.7758821321497</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>379.659242719814</v>
       </c>
       <c r="E10" t="n">
-        <v>409.0761618661918</v>
+        <v>231.7461491374208</v>
       </c>
       <c r="F10" t="n">
-        <v>262.1862143682814</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="G10" t="n">
-        <v>93.18641410661382</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>93.18641410661382</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>93.18641410661382</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>234.1814830641755</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>822.9672145333731</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>568.2827263274862</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>278.8655562905255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473451</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262957</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>852.8393161721547</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="23">
@@ -5986,46 +5986,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,49 +6448,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347412</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609703</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550834</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181228</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181228</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,46 +6691,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6770,37 +6770,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,13 +6876,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1382.222354598086</v>
@@ -6900,10 +6900,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X37" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7180,46 +7180,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7648,19 +7648,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>31.65207341077706</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>108.8243499063674</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>36.51615797628585</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>31.98982952392984</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>23.7819838094054</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182073</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>64.30500338171939</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>18.81634668816264</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.98990566424413</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>79.43092547709136</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538232</v>
       </c>
     </row>
     <row r="14">
@@ -26316,31 +26316,31 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590217</v>
@@ -26349,10 +26349,10 @@
         <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26438,16 +26438,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26456,10 +26456,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-295924.7651173923</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971524</v>
+        <v>294043.1140971527</v>
       </c>
       <c r="D6" t="n">
         <v>294043.1140971527</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.25438803</v>
+        <v>-124829.8456477516</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291444</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888658</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291443</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.5628962727</v>
+        <v>223906.9716365515</v>
       </c>
       <c r="K6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291443</v>
       </c>
       <c r="L6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291443</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.7668550288</v>
+        <v>265529.1755953071</v>
       </c>
       <c r="N6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291444</v>
       </c>
       <c r="O6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291443</v>
       </c>
       <c r="P6" t="n">
-        <v>401304.7820888658</v>
+        <v>400330.1908291442</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80.28263268458667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.4964216281529</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>141.5772681289777</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>120.1681237664918</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>5.849780374092887</v>
+        <v>41.20305622730856</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>41.60958424499435</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>57.30291672915742</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>250.3937014034603</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>245.2407793169693</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>136.7057146380964</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>6.348961225150127</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30149,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35740,10 +35740,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056001</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>516.7753531914243</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206064</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024729.782894004</v>
+        <v>2029669.045743036</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>237.4552014283703</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>243.6401400797705</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G4" t="n">
-        <v>47.14167849255911</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>110.7282600175527</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>304.2702189311422</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>107.005888773218</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>28.92900240760912</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.983388191320055</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>30.60408762095456</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.8086284801604</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>75.13747633204051</v>
       </c>
       <c r="C13" t="n">
-        <v>135.5947476878508</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>116.8853054826698</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>97.51043302167554</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>121.7291580092799</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002137</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>220.1478137998982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>58.99239495697606</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.8026695426894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>221.932349016858</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>101.1185891390118</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>116.5605274488292</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.3415311720269</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>474.3790142316151</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D2" t="n">
-        <v>474.3790142316151</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="E2" t="n">
-        <v>474.3790142316151</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>467.4335134824117</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>453.5101094210026</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4372,10 +4372,10 @@
         <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761947</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638589</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>248.4507863814658</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F4" t="n">
-        <v>101.5608388835555</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.927233509</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>948.9647165685888</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>590.6990179618383</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>590.6990179618383</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>583.7535172126348</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>165.7897091108217</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>165.7897091108217</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.9194859165262</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>477.9194859165262</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165262</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097704</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600566</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321497</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>379.659242719814</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600566</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.1814830641755</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5235,16 +5235,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924326</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8299478944152</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8299478944152</v>
+        <v>898.5039869983193</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>413.0432218861031</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.0432218861031</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1121.273036888096</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>893.2834859900788</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>852.8393161721547</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>563.4221461351941</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,25 +6004,25 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211722</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M27" t="n">
-        <v>966.693239001134</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665167</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347412</v>
+        <v>1439.327992823583</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609703</v>
+        <v>1439.327992823583</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550834</v>
+        <v>1184.643504617696</v>
       </c>
       <c r="W31" t="n">
-        <v>441.9005583181228</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="X31" t="n">
-        <v>441.9005583181228</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6861,28 +6861,28 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1382.222354598086</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1050.956765431391</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V37" t="n">
-        <v>796.2722772255036</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905256</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>683.9422174472136</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="44">
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>964.135741824786</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>795.1995588968791</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>645.0829194845434</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>964.135741824786</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142007</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298206</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503174</v>
       </c>
       <c r="L39" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>104.6945038498968</v>
       </c>
       <c r="C13" t="n">
-        <v>31.65207341077706</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>108.8243499063674</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>121.0742203304193</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>164.7938403273112</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.3938331833895</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>31.98982952392984</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271385</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.5551661014132</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.7819838094054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182073</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>64.30500338171939</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518774</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>151.0190541848162</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>176.3280338692828</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>29.87343519773994</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.8073538232</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590219</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="H2" t="n">
+        <v>508337.7776590219</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26438,16 +26438,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26456,10 +26456,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173923</v>
+        <v>-295924.7651173922</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971527</v>
+        <v>294043.1140971524</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971527</v>
+        <v>294043.1140971525</v>
       </c>
       <c r="E6" t="n">
-        <v>-124829.8456477516</v>
+        <v>-123952.713514002</v>
       </c>
       <c r="F6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.322962894</v>
       </c>
       <c r="G6" t="n">
-        <v>400330.1908291444</v>
+        <v>401207.3229628939</v>
       </c>
       <c r="H6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.322962894</v>
       </c>
       <c r="I6" t="n">
-        <v>400330.1908291443</v>
+        <v>401207.3229628939</v>
       </c>
       <c r="J6" t="n">
-        <v>223906.9716365515</v>
+        <v>224784.1037703007</v>
       </c>
       <c r="K6" t="n">
-        <v>400330.1908291443</v>
+        <v>401207.3229628939</v>
       </c>
       <c r="L6" t="n">
-        <v>400330.1908291443</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="M6" t="n">
-        <v>265529.1755953071</v>
+        <v>266406.3077290566</v>
       </c>
       <c r="N6" t="n">
-        <v>400330.1908291444</v>
+        <v>401207.322962894</v>
       </c>
       <c r="O6" t="n">
-        <v>400330.1908291443</v>
+        <v>401207.3229628935</v>
       </c>
       <c r="P6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628937</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>144.4751686438914</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>80.28263268458667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G4" t="n">
-        <v>120.1681237664918</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>41.20305622730856</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>23.48203953899269</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.60958424499435</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>384.8551676131859</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2407793169693</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7057146380964</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>73.7760248719344</v>
       </c>
     </row>
     <row r="11">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30149,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,31 +32876,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,31 +33587,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,31 +33824,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,31 +34061,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047519</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520599</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206064</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382566</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
